--- a/symbols/My_MOSFET.xlsx
+++ b/symbols/My_MOSFET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A837E-E768-46B8-AAB0-CE1D0C3D4B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F855B0-3F27-4016-9B77-198DC331F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30765" yWindow="1680" windowWidth="28290" windowHeight="18165" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1005" windowWidth="24840" windowHeight="12450" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~NMOS_DGS" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>C8545</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>N-Channel 60V 115mA 7Ω@5V 60V SOT-23 MOSFET</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>JLCPCB Type</t>
-  </si>
-  <si>
     <t>AO3401A</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>P-Channel 20V 2.3A 1.6W 142mΩ@2.5V SOT-23 MOSFET</t>
+  </si>
+  <si>
+    <t>transistor NMOS N-MOS N-MOSFET basic</t>
+  </si>
+  <si>
+    <t>transistor PMOS P-MOS P-MOSFET basic</t>
   </si>
 </sst>
 </file>
@@ -194,9 +194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,14 +551,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -583,49 +586,49 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>SI2301CDS-T1-GE3</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +797,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,6 @@
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,43 +840,43 @@
         <v>2N7002</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>AO3400A</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
